--- a/volumes/python/openpyxl/sample.xlsx
+++ b/volumes/python/openpyxl/sample.xlsx
@@ -124,6 +124,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2095500" cy="2095500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -413,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,59 +452,28 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
-          <t>Hello</t>
+          <t>Geeks</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>World</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Welcome</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Everyone</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>New Data</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="D1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>